--- a/res/agent_session_record.xlsx
+++ b/res/agent_session_record.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3766,6 +3766,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4287904.580863124</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1784714.580863124</v>
+      </c>
+      <c r="F86" t="n">
+        <v>731670</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1771520</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
